--- a/design-space-exploration/design-space-charts.xlsx
+++ b/design-space-exploration/design-space-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\Documents\Spr 22\fpga\HWImageProcessor\design-space-exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F106175-110A-4340-A294-E7870A34E9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD2F663-23A0-460E-9C1A-96F67386FBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-2754" windowWidth="23232" windowHeight="12432" xr2:uid="{31EA6664-D3C0-497B-BEA4-E9E786E423EB}"/>
   </bookViews>
@@ -204,12 +204,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Design Space</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Pareto graph</a:t>
+              <a:t>Pareto graph</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2262,9 +2258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2591,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883F8882-FFF4-4276-BF4D-193671C4D470}">
   <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/design-space-exploration/design-space-charts.xlsx
+++ b/design-space-exploration/design-space-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\Documents\Spr 22\fpga\HWImageProcessor\design-space-exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD2F663-23A0-460E-9C1A-96F67386FBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87E4A5D-E894-4784-895A-2B1D8C6B3883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-2754" windowWidth="23232" windowHeight="12432" xr2:uid="{31EA6664-D3C0-497B-BEA4-E9E786E423EB}"/>
   </bookViews>
@@ -191,23 +191,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US"/>
               <a:t>Pareto graph</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -224,16 +223,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -268,16 +267,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -335,16 +335,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -402,16 +403,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -469,16 +471,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -536,16 +537,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent5"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -604,15 +604,16 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -670,20 +671,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -741,20 +739,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -812,20 +809,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -883,20 +879,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -954,20 +949,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent5">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1025,20 +1019,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent6">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1093,22 +1086,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="80000"/>
                     <a:lumOff val="20000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1166,22 +1155,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent2">
                     <a:lumMod val="80000"/>
                     <a:lumOff val="20000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1240,21 +1225,19 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent3">
                     <a:lumMod val="80000"/>
                     <a:lumOff val="20000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1312,22 +1295,18 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:noFill/>
+              <a:ln w="15875">
                 <a:solidFill>
                   <a:schemeClr val="accent4">
                     <a:lumMod val="80000"/>
                     <a:lumOff val="20000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1385,7 +1364,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1402,9 +1381,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -1434,9 +1413,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -1458,9 +1437,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1474,7 +1454,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1502,7 +1482,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -1519,9 +1499,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -1551,9 +1531,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -1575,9 +1555,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1591,7 +1572,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1609,7 +1590,17 @@
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1617,7 +1608,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1633,7 +1624,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -1660,11 +1651,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1732,25 +1723,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="250">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1758,30 +1749,31 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1789,14 +1781,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -1833,37 +1825,49 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1873,22 +1877,26 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1912,16 +1920,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1929,14 +1936,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1947,9 +1954,9 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1961,12 +1968,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -1980,14 +1987,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1999,13 +2006,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2013,12 +2027,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2032,14 +2046,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2051,14 +2065,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2070,12 +2084,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2089,39 +2103,69 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2129,12 +2173,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -2147,13 +2191,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2162,14 +2206,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2178,7 +2221,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2190,7 +2233,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2198,9 +2241,9 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2212,7 +2255,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2220,9 +2263,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2235,13 +2279,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -2257,10 +2308,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2587,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883F8882-FFF4-4276-BF4D-193671C4D470}">
   <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/design-space-exploration/design-space-charts.xlsx
+++ b/design-space-exploration/design-space-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\Documents\Spr 22\fpga\HWImageProcessor\design-space-exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87E4A5D-E894-4784-895A-2B1D8C6B3883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0A2DCD-7D00-4494-A637-D8B2351A05E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-2754" windowWidth="23232" windowHeight="12432" xr2:uid="{31EA6664-D3C0-497B-BEA4-E9E786E423EB}"/>
   </bookViews>
@@ -191,7 +191,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="50000"/>
@@ -204,7 +204,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
               <a:t>Pareto graph</a:t>
             </a:r>
           </a:p>
@@ -223,7 +223,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="50000"/>
@@ -241,7 +241,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5374948708974732E-2"/>
+          <c:y val="0.10073912781671791"/>
+          <c:w val="0.87376910967831478"/>
+          <c:h val="0.45909718756755502"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1381,7 +1391,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -1394,12 +1404,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1100" baseline="0"/>
                   <a:t>Latency (ns)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40920571679748335"/>
+              <c:y val="0.6131577071326284"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1413,7 +1431,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
@@ -1499,7 +1517,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
@@ -1512,7 +1530,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t>Area</a:t>
                 </a:r>
               </a:p>
@@ -1531,7 +1549,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
@@ -1609,6 +1627,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2953852053277014E-2"/>
+          <c:y val="0.65729416783666961"/>
+          <c:w val="0.955412534675251"/>
+          <c:h val="0.30598473394501802"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1622,7 +1650,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
@@ -2305,13 +2333,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>2320290</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>147917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2638,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883F8882-FFF4-4276-BF4D-193671C4D470}">
   <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/design-space-exploration/design-space-charts.xlsx
+++ b/design-space-exploration/design-space-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\Documents\Spr 22\fpga\HWImageProcessor\design-space-exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0A2DCD-7D00-4494-A637-D8B2351A05E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D9972-616C-40D7-B914-F2A698727538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-2754" windowWidth="23232" windowHeight="12432" xr2:uid="{31EA6664-D3C0-497B-BEA4-E9E786E423EB}"/>
   </bookViews>
@@ -2667,22 +2667,22 @@
   <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="51.578125" customWidth="1"/>
+    <col min="2" max="2" width="14.578125" customWidth="1"/>
+    <col min="3" max="3" width="14.68359375" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="8" max="8" width="11.15625" customWidth="1"/>
+    <col min="9" max="9" width="14.15625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>7112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>13866</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>5186</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>8112</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>20128</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>14109</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>7172</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>7081</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3205,6 +3205,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/design-space-exploration/design-space-charts.xlsx
+++ b/design-space-exploration/design-space-charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schen\Documents\Spr 22\fpga\HWImageProcessor\design-space-exploration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259D9972-616C-40D7-B914-F2A698727538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB85BEF2-CA8E-4028-B921-2E9075A5833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-2754" windowWidth="23232" windowHeight="12432" xr2:uid="{31EA6664-D3C0-497B-BEA4-E9E786E423EB}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>single channel base</t>
   </si>
   <si>
-    <t>mutli channel base</t>
-  </si>
-  <si>
     <t>multi channel pipelined shift pipelined acc</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
   </si>
   <si>
     <t>multi channel unrolled shift 8 pipelined acc</t>
-  </si>
-  <si>
-    <t>mutli channel unrolled shift 10 unrolled acc manual</t>
   </si>
   <si>
     <t>multi channel unrolled shift full</t>
@@ -117,6 +111,12 @@
   <si>
     <t xml:space="preserve">BRAM Weight </t>
   </si>
+  <si>
+    <t>multi channel base</t>
+  </si>
+  <si>
+    <t>multi channel unrolled shift 10 unrolled acc manual</t>
+  </si>
 </sst>
 </file>
 
@@ -131,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -151,8 +157,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,7 +813,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mutli channel base</c:v>
+                  <c:v>multi channel base</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1083,7 +1090,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mutli channel unrolled shift 10 unrolled acc manual</c:v>
+                  <c:v>multi channel unrolled shift 10 unrolled acc manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1710,7 +1717,4266 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pareto graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5374948708974732E-2"/>
+          <c:y val="9.65255306942054E-2"/>
+          <c:w val="0.76607695831310296"/>
+          <c:h val="0.46331076687703193"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1442202280444139"/>
+                  <c:y val="-1.8422198197612745E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-5A62-400C-8F87-34BEA25E3368}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel pipelined shift pipelined acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel pipelined shift unroll acc full</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel unroll shift 2 unroll acc full</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel unroll shift 4 pipelined acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2420</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel unroll shift full</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1093863695724146E-2"/>
+                  <c:y val="1.8422198197612677E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-5A62-400C-8F87-34BEA25E3368}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel unroll shift full pipeline acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5357402733083761E-2"/>
+                  <c:y val="2.0264418017373952E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-5A62-400C-8F87-34BEA25E3368}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel unroll shift full unroll acc full period 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi channel base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14580506571523164"/>
+                  <c:y val="-3.5002176575464145E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-5A62-400C-8F87-34BEA25E3368}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi channel pipelined shift pipelined acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6161</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi channel unrolled shift 2 pipelined acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi channel unrolled shift 8 pipelined acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi channel unrolled shift 10 unrolled acc manual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>14109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi channel unrolled shift full</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3393506832709404E-3"/>
+                  <c:y val="-0.11421762882519898"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-5A62-400C-8F87-34BEA25E3368}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi channel unrolled shift full pipelined acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>multi channel unrolled shift full unrolled acc full period 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-5A62-400C-8F87-34BEA25E3368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="565389919"/>
+        <c:axId val="565384927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="565389919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40920571679748335"/>
+              <c:y val="0.6131577071326284"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565384927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="565384927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565389919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pareto graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3036789178211246E-2"/>
+          <c:y val="0.24358715438404829"/>
+          <c:w val="0.85078353044062471"/>
+          <c:h val="0.47117399069547211"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel base</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1442202280444139"/>
+                  <c:y val="-1.8422198197612745E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel unroll shift full</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1093863695724146E-2"/>
+                  <c:y val="1.8422198197612677E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2195</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel unroll shift full pipeline acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6083930832908589E-2"/>
+                  <c:y val="-3.1377141512046777E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>single channel unroll shift full unroll acc full period 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.661797865604102E-3"/>
+                  <c:y val="-0.17500771461656656"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>264</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="565389919"/>
+        <c:axId val="565384927"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>single channel pipelined shift pipelined acc</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2420</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1322</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>single channel pipelined shift unroll acc full</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2300</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1485</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>single channel unroll shift 2 unroll acc full</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1380</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>7112</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>single channel unroll shift 4 pipelined acc</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2420</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>13866</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>multi channel base</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:dLbl>
+                    <c:idx val="0"/>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-0.14580506571523164"/>
+                        <c:y val="-3.5002176575464145E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="0"/>
+                    <c:showCatName val="0"/>
+                    <c:showSerName val="1"/>
+                    <c:showPercent val="0"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                        <c16:uniqueId val="{0000000B-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                      </c:ext>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="1"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>4590</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1618</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>multi channel pipelined shift pipelined acc</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2360</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>6161</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>multi channel unrolled shift 2 pipelined acc</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1400</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>8112</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>multi channel unrolled shift 8 pipelined acc</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$14</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>20128</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="12"/>
+                <c:order val="12"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>multi channel unrolled shift 10 unrolled acc manual</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>2200</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>14109</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>multi channel unrolled shift full</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:dLbls>
+                  <c:dLbl>
+                    <c:idx val="0"/>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-6.3393506832709404E-3"/>
+                        <c:y val="-0.11421762882519898"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:showLegendKey val="0"/>
+                    <c:showVal val="0"/>
+                    <c:showCatName val="0"/>
+                    <c:showSerName val="1"/>
+                    <c:showPercent val="0"/>
+                    <c:showBubbleSize val="0"/>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                        <c16:uniqueId val="{00000011-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                      </c:ext>
+                    </c:extLst>
+                  </c:dLbl>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="0"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="1"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>410</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>7172</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000012-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="14"/>
+                <c:order val="14"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>multi channel unrolled shift full pipelined acc</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>380</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>7081</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>multi channel unrolled shift full unrolled acc full period 12</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="80000"/>
+                        <a:lumOff val="20000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="80000"/>
+                          <a:lumOff val="20000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>264</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>7394</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000014-46E4-4EA7-ABDB-41B15EFFF0DD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="565389919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency (ns)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46437070939319525"/>
+              <c:y val="0.77668952361847354"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565384927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="565384927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565389919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2326,6 +6592,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2359,6 +7657,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>364976</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>39668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28799</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>62751</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AF1240-F661-418D-9711-6E16ED54939B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2837328</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>35183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96721A41-9FB4-411F-89BF-1A7F30401060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2667,22 +8041,22 @@
   <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.578125" customWidth="1"/>
-    <col min="2" max="2" width="14.578125" customWidth="1"/>
-    <col min="3" max="3" width="14.68359375" customWidth="1"/>
-    <col min="4" max="4" width="10.68359375" customWidth="1"/>
-    <col min="8" max="8" width="11.15625" customWidth="1"/>
-    <col min="9" max="9" width="14.15625" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="12.578125" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2693,7 +8067,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -2711,38 +8085,38 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>459</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4590</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>445</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>646</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <f>MAX(E3,F3) + ($K$3 *G3) + ($L$3 *H3)</f>
         <v>1046</v>
       </c>
@@ -2753,7 +8127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2783,7 +8157,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2813,7 +8187,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2843,7 +8217,7 @@
         <v>7112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2873,7 +8247,7 @@
         <v>13866</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2903,37 +8277,37 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>38</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>380</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2249</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>4886</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <f t="shared" si="0"/>
         <v>5186</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2963,9 +8337,9 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>459</v>
@@ -2993,9 +8367,9 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>236</v>
@@ -3023,9 +8397,9 @@
         <v>6161</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>140</v>
@@ -3053,9 +8427,9 @@
         <v>8112</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>246</v>
@@ -3083,9 +8457,9 @@
         <v>20128</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>220</v>
@@ -3113,9 +8487,9 @@
         <v>14109</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>41</v>
@@ -3143,9 +8517,9 @@
         <v>7172</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>38</v>
@@ -3173,9 +8547,9 @@
         <v>7081</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>22</v>
